--- a/TestCaseData/TestCaseData_pla.xlsx
+++ b/TestCaseData/TestCaseData_pla.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -264,18 +264,6 @@
     <t>Self-employed</t>
   </si>
   <si>
-    <t>CHARITY</t>
-  </si>
-  <si>
-    <t>JDACOMMON</t>
-  </si>
-  <si>
-    <t>3635 BAY ST</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
     <t>pla</t>
   </si>
   <si>
@@ -322,6 +310,39 @@
   </si>
   <si>
     <t>&amp;igen=1&amp;igop=1&amp;esourceid=14349&amp;mpid=8550</t>
+  </si>
+  <si>
+    <t>PBXZERH</t>
+  </si>
+  <si>
+    <t>YDTHWWKZN</t>
+  </si>
+  <si>
+    <t>10 VXRXKVUF CT</t>
+  </si>
+  <si>
+    <t>STONEHAM</t>
+  </si>
+  <si>
+    <t>02180</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>9795</t>
   </si>
 </sst>
 </file>
@@ -666,7 +687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -818,19 +841,19 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>65</v>
@@ -878,13 +901,13 @@
         <v>32</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>60</v>
@@ -893,7 +916,7 @@
         <v>61</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>31</v>
@@ -907,19 +930,19 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>64</v>
@@ -967,13 +990,13 @@
         <v>32</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>57</v>
@@ -982,7 +1005,7 @@
         <v>63</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>31</v>
@@ -996,19 +1019,19 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>66</v>
@@ -1056,13 +1079,13 @@
         <v>32</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>80</v>
@@ -1071,7 +1094,7 @@
         <v>57</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>31</v>
@@ -1085,19 +1108,19 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>57</v>
@@ -1112,46 +1135,46 @@
         <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>61750</v>
+        <v>99</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="1">
-        <v>407</v>
-      </c>
-      <c r="T5" s="1">
-        <v>939</v>
-      </c>
-      <c r="U5" s="1">
-        <v>3463</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>212</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>7583</v>
+        <v>100</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>69</v>
@@ -1160,7 +1183,7 @@
         <v>61</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>31</v>
@@ -1174,19 +1197,19 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>62</v>
@@ -1249,7 +1272,7 @@
         <v>63</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>31</v>
@@ -1263,7 +1286,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -1272,7 +1295,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>72</v>
@@ -1323,13 +1346,13 @@
         <v>32</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>70</v>
@@ -1338,7 +1361,7 @@
         <v>57</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>35</v>
@@ -1352,16 +1375,16 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>72</v>
@@ -1427,7 +1450,7 @@
         <v>57</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>35</v>
@@ -1442,7 +1465,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q3 AC8:AE8 AC6:AE6" numberStoredAsText="1"/>
+    <ignoredError sqref="Q3 AC8:AE8 AC6:AE6 Q5 S5:U5 Z5:AB5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>